--- a/tut04/output_by_subject/ME512.csv.xlsx
+++ b/tut04/output_by_subject/ME512.csv.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1250,6 +1250,820 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2121EE06</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CREDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2121ME19</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>AUDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1801ME05</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1801ME06</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1801ME08</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1801ME13</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1801ME19</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1801ME25</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1801ME28</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1801ME34</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1801ME35</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1801ME41</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1801ME42</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1801ME43</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1801ME45</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1801ME47</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1801ME49</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1801ME54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1801ME55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1801ME56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1801ME58</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1801ME63</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1801ME65</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1801ME04</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1801ME15</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1801ME24</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2021CS06</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>AUDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1801ME39</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1801ME48</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1801ME50</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1801ME52</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1801ME59</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1801ME60</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1801ME61</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1801ME62</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1801ME44</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1801ME27</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
